--- a/data/trans_dic/P1413-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1413-Clase-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1122636441197798</v>
+        <v>0.1099296538084435</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05096675460220663</v>
+        <v>0.04704347731206776</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.05363180438858235</v>
+        <v>0.05503330377930724</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1214578766576027</v>
+        <v>0.121773740054881</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.09171880096428754</v>
+        <v>0.09607184507518955</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.08407519293746127</v>
+        <v>0.09021562577855408</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.05131170202570298</v>
+        <v>0.05225914369817405</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2027599450254554</v>
+        <v>0.2071523560602003</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1127680131539265</v>
+        <v>0.1131256666762741</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.07275546299237251</v>
+        <v>0.07237429644557793</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.0613302480906056</v>
+        <v>0.06096042346380703</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1684895775103554</v>
+        <v>0.1679202603048186</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1777403927212492</v>
+        <v>0.1738628576968345</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.09754101867589736</v>
+        <v>0.09635378385039119</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1079715909696472</v>
+        <v>0.1114927271724593</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1806381745784606</v>
+        <v>0.1816283289845787</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.167878379590831</v>
+        <v>0.1688803530614793</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1699465699761845</v>
+        <v>0.1696843728557377</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1132536115458186</v>
+        <v>0.1099408398431988</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2702823857494127</v>
+        <v>0.2709964821626102</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1618704732223573</v>
+        <v>0.1635522782303162</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1185194905758074</v>
+        <v>0.1159036551916826</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1005800225069742</v>
+        <v>0.1021154270273756</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2129171072073036</v>
+        <v>0.2129030878984597</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.1172382983670523</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.2800619193728439</v>
+        <v>0.280061919372844</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.1350364790801389</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07402382379632395</v>
+        <v>0.07361904013010931</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0591413548925805</v>
+        <v>0.05781078372266409</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03504771237183017</v>
+        <v>0.03581216615604196</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1330422241691739</v>
+        <v>0.1333458396207825</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1318788640943263</v>
+        <v>0.1348052656525834</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1043866378546682</v>
+        <v>0.1087373699986978</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.08426195821024418</v>
+        <v>0.08666873065775912</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2417836198050348</v>
+        <v>0.243066823570437</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1111597778819453</v>
+        <v>0.1120303283612668</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.08513929841880515</v>
+        <v>0.0862804566016562</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.06581551986990447</v>
+        <v>0.0675689460784567</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1933803348150938</v>
+        <v>0.1944635049152534</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1381042254321518</v>
+        <v>0.1403174641095709</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1145676758160643</v>
+        <v>0.1180312636514877</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0863357427408509</v>
+        <v>0.08641189865220776</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.203650266214369</v>
+        <v>0.205316061371827</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2096629436652588</v>
+        <v>0.2117125907180284</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1819211069673808</v>
+        <v>0.1842284938840767</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.153124880492485</v>
+        <v>0.1573642646921199</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3138975981839939</v>
+        <v>0.3193895717810812</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1614964898507865</v>
+        <v>0.164640804831081</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1334670503561291</v>
+        <v>0.1359305148199718</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1096267925582684</v>
+        <v>0.1125827442827309</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2474728246438625</v>
+        <v>0.2468824442296725</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1545873375760126</v>
+        <v>0.1562747395297324</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07845234739893461</v>
+        <v>0.078189228331668</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0578838474904535</v>
+        <v>0.05649835067443522</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1829882049562469</v>
+        <v>0.1827447212926676</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1471791105359686</v>
+        <v>0.1467190928688616</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1143274301702758</v>
+        <v>0.1129790505756983</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.144917754949521</v>
+        <v>0.1433504231157838</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3028532775607268</v>
+        <v>0.3068275597636539</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1620528828618317</v>
+        <v>0.1641523742753422</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.09553782126881227</v>
+        <v>0.09593558693129578</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.08611064499907314</v>
+        <v>0.08637620400275756</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2271601420751362</v>
+        <v>0.2327252602207211</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.220011670418597</v>
+        <v>0.2211316511400976</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1299008629146781</v>
+        <v>0.130021529005013</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1057400407465733</v>
+        <v>0.1050533045956042</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2563679290055727</v>
+        <v>0.2575962158605485</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2815657358546808</v>
+        <v>0.2759951325356872</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2046600339751709</v>
+        <v>0.2035942691203226</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2780613610967347</v>
+        <v>0.2704527793159529</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4229525300585914</v>
+        <v>0.4273059655070369</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2198750584609919</v>
+        <v>0.2246334990269954</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.140309177367816</v>
+        <v>0.1400700154472754</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1354921882175717</v>
+        <v>0.1345310076372547</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2902573863434908</v>
+        <v>0.29425362984893</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1836312198399102</v>
+        <v>0.183230308962497</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.09341330077427273</v>
+        <v>0.09337199005060887</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07449206553140487</v>
+        <v>0.07560588895134011</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1875567703334828</v>
+        <v>0.1863703491353058</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1665629484601757</v>
+        <v>0.164766009760957</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.138614621736783</v>
+        <v>0.139186663156475</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1072094988273774</v>
+        <v>0.1078244139129193</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2475767359098358</v>
+        <v>0.2470120070230606</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1830574847815014</v>
+        <v>0.1834847138636868</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1158594738227357</v>
+        <v>0.1175067333477066</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.09361558084381894</v>
+        <v>0.09293524608248077</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2202832548831752</v>
+        <v>0.2189804533706629</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2265763167772115</v>
+        <v>0.2265234682236274</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1315707883160433</v>
+        <v>0.1298783446804426</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1092465565714786</v>
+        <v>0.1097105113328272</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2356513082181862</v>
+        <v>0.2346115055978578</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2234291290429902</v>
+        <v>0.2223638015311702</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1935009158878845</v>
+        <v>0.1908659675448905</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1570669306477263</v>
+        <v>0.1580176342745529</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2986875334938202</v>
+        <v>0.3018011488790344</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2175186186174179</v>
+        <v>0.2191768801674805</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1480202063974931</v>
+        <v>0.1486588535994241</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.121741123392369</v>
+        <v>0.1223310843063264</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.256225276050672</v>
+        <v>0.2561132341121716</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.1723253615212761</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.3972666255195679</v>
+        <v>0.3972666255195678</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.2057602769546927</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.151318588079026</v>
+        <v>0.1547274052096956</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.06192041924846136</v>
+        <v>0.0607639693630587</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.09681719093964421</v>
+        <v>0.09598657668581789</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1753319735398923</v>
+        <v>0.1739777528255823</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1816558975449958</v>
+        <v>0.1815215906799</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2024714650034745</v>
+        <v>0.2012929190449479</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1467227322615483</v>
+        <v>0.1459178032710341</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3670329513464398</v>
+        <v>0.3704059933362678</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1772676809101034</v>
+        <v>0.1790799858894409</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1511124916975823</v>
+        <v>0.1522240344423271</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1299505660818939</v>
+        <v>0.1291866886174643</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2976272198809737</v>
+        <v>0.2993550177825593</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2312518084081065</v>
+        <v>0.235690226591466</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1123293886991492</v>
+        <v>0.1113373696932644</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1487659142854109</v>
+        <v>0.1481665704940171</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2460318091194859</v>
+        <v>0.2410446204460995</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2510210401415372</v>
+        <v>0.2520046798525212</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2668611413004583</v>
+        <v>0.2644219019250337</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.203781194228065</v>
+        <v>0.2017898419340406</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4240133316431789</v>
+        <v>0.4269383272079336</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2324917788119216</v>
+        <v>0.2321175274928773</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1956956440313835</v>
+        <v>0.1950684878251548</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1691036715494718</v>
+        <v>0.1676577533817478</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.342574198803976</v>
+        <v>0.3471507244421581</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.003951735175798903</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.08680453392211221</v>
+        <v>0.0868045339221122</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.2028315883502841</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.006436252004412551</v>
+        <v>0.008492534620088197</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.007512267952607351</v>
+        <v>0.007559230420698214</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.04776700350695055</v>
+        <v>0.04307350452516513</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1806473394207294</v>
+        <v>0.1809338473152053</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1694794689402297</v>
+        <v>0.1672893837285072</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1180242937686238</v>
+        <v>0.1182003788977591</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2736896596753138</v>
+        <v>0.272440503576335</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1488709379809903</v>
+        <v>0.1516938457047448</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1387725462160411</v>
+        <v>0.1419406790641827</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.09346608409030915</v>
+        <v>0.09338986984084596</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2280715048810996</v>
+        <v>0.230413021674242</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03842391588466158</v>
+        <v>0.04218357756408192</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.05654692807013306</v>
+        <v>0.05152435204126541</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.01996802898966528</v>
+        <v>0.01982651456871982</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1643367500955339</v>
+        <v>0.1577658790584077</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2264019294482821</v>
+        <v>0.2272784376235518</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2197139705902279</v>
+        <v>0.2172413851528225</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1630506090819062</v>
+        <v>0.162286532244017</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3308199847621922</v>
+        <v>0.3310258341091294</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1862664661455865</v>
+        <v>0.1884358638651727</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1810807116867134</v>
+        <v>0.183122991403329</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1305116128706497</v>
+        <v>0.1305125172024122</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2828913708012</v>
+        <v>0.2815972745398959</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1499932706239173</v>
+        <v>0.1475570744609392</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0809975028073321</v>
+        <v>0.08047336756454081</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.072573978485225</v>
+        <v>0.07265840437775987</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1741851001735364</v>
+        <v>0.1725024510814107</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1795167794577142</v>
+        <v>0.1787924565488921</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1688981192073092</v>
+        <v>0.169093814867303</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1266047852942057</v>
+        <v>0.1257585897482621</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2952368839150007</v>
+        <v>0.2964853435711814</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1682574413965394</v>
+        <v>0.1688116939941255</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1281477209377979</v>
+        <v>0.1286757344981923</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1034757528527103</v>
+        <v>0.1029856590758924</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2394471278195253</v>
+        <v>0.2399442541204468</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.174952384493455</v>
+        <v>0.17460337940082</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.101205836736118</v>
+        <v>0.1016712964412199</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.09158930792081776</v>
+        <v>0.09247598057817652</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2025194149061023</v>
+        <v>0.1991420879816707</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2066914847715025</v>
+        <v>0.2056455452038969</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1950748863049108</v>
+        <v>0.1946259802234451</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1511479010750128</v>
+        <v>0.1501578973365829</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3205616844022681</v>
+        <v>0.3220172433338487</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1864362431763472</v>
+        <v>0.1876751807425957</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1450575917513247</v>
+        <v>0.1452054432622691</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1197452680422942</v>
+        <v>0.1187820732460425</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.258394726129115</v>
+        <v>0.2594214023991717</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>53188</v>
+        <v>52082</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>22283</v>
+        <v>20568</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>23013</v>
+        <v>23614</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>66733</v>
+        <v>66907</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>28128</v>
+        <v>29463</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>26438</v>
+        <v>28369</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>17808</v>
+        <v>18137</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>98890</v>
+        <v>101032</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>88011</v>
+        <v>88290</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>54688</v>
+        <v>54401</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>47601</v>
+        <v>47314</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>174750</v>
+        <v>174159</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>84209</v>
+        <v>82372</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>42646</v>
+        <v>42127</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>46330</v>
+        <v>47841</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>99249</v>
+        <v>99793</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>51485</v>
+        <v>51792</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>53440</v>
+        <v>53358</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>39305</v>
+        <v>38156</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>131822</v>
+        <v>132170</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>126333</v>
+        <v>127646</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>89087</v>
+        <v>87121</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>78065</v>
+        <v>79257</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>220828</v>
+        <v>220813</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>27162</v>
+        <v>27013</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>24768</v>
+        <v>24211</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>13221</v>
+        <v>13509</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>64169</v>
+        <v>64315</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>49041</v>
+        <v>50129</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>35284</v>
+        <v>36754</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>31368</v>
+        <v>32264</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>102152</v>
+        <v>102694</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>82125</v>
+        <v>82768</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>64434</v>
+        <v>65298</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>49329</v>
+        <v>50643</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>174973</v>
+        <v>175953</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>50675</v>
+        <v>51487</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>47981</v>
+        <v>49431</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>32568</v>
+        <v>32597</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>98225</v>
+        <v>99028</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>77966</v>
+        <v>78729</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>61491</v>
+        <v>62271</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>57004</v>
+        <v>58582</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>132619</v>
+        <v>134940</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>119313</v>
+        <v>121636</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>101009</v>
+        <v>102873</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>82165</v>
+        <v>84381</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>223916</v>
+        <v>223382</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>83846</v>
+        <v>84762</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>49379</v>
+        <v>49213</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>30210</v>
+        <v>29487</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>86140</v>
+        <v>86026</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>24694</v>
+        <v>24617</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>29740</v>
+        <v>29389</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>24074</v>
+        <v>23814</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>56784</v>
+        <v>57529</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>115085</v>
+        <v>116576</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>84985</v>
+        <v>85339</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>59247</v>
+        <v>59430</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>149526</v>
+        <v>153189</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>119332</v>
+        <v>119939</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>81762</v>
+        <v>81838</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>55187</v>
+        <v>54829</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>120683</v>
+        <v>121262</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>47242</v>
+        <v>46307</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>53238</v>
+        <v>52961</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>46192</v>
+        <v>44928</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>79302</v>
+        <v>80119</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>156149</v>
+        <v>159528</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>124811</v>
+        <v>124598</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>93224</v>
+        <v>92562</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>191059</v>
+        <v>193690</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>227397</v>
+        <v>226900</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>108267</v>
+        <v>108219</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>85639</v>
+        <v>86919</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>211828</v>
+        <v>210489</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>118973</v>
+        <v>117690</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>106002</v>
+        <v>106439</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>88542</v>
+        <v>89050</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>213216</v>
+        <v>212729</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>357442</v>
+        <v>358276</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>222882</v>
+        <v>226051</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>184939</v>
+        <v>183595</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>438500</v>
+        <v>435907</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>280577</v>
+        <v>280512</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>152492</v>
+        <v>150530</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>125594</v>
+        <v>126127</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>266147</v>
+        <v>264973</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>159592</v>
+        <v>158831</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>147974</v>
+        <v>145959</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>129718</v>
+        <v>130503</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>257233</v>
+        <v>259914</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>424731</v>
+        <v>427969</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>284751</v>
+        <v>285980</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>240501</v>
+        <v>241667</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>510047</v>
+        <v>509824</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>53045</v>
+        <v>54240</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>31616</v>
+        <v>31026</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>60095</v>
+        <v>59579</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>99409</v>
+        <v>98641</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>103317</v>
+        <v>103241</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>153928</v>
+        <v>153032</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>108317</v>
+        <v>107723</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>304684</v>
+        <v>307484</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>162963</v>
+        <v>164629</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>192040</v>
+        <v>193453</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>176596</v>
+        <v>175558</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>415816</v>
+        <v>418230</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>81066</v>
+        <v>82622</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>57355</v>
+        <v>56848</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>92340</v>
+        <v>91968</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>139494</v>
+        <v>136667</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>142769</v>
+        <v>143328</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>202880</v>
+        <v>201026</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>150440</v>
+        <v>148970</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>351985</v>
+        <v>354413</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>213731</v>
+        <v>213387</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>248698</v>
+        <v>247901</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>229803</v>
+        <v>227839</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>478611</v>
+        <v>485005</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1919</v>
+        <v>2532</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>2005</v>
+        <v>2017</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>11332</v>
+        <v>10218</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>225585</v>
+        <v>225943</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>188012</v>
+        <v>185583</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>127705</v>
+        <v>127896</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>230884</v>
+        <v>229830</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>230297</v>
+        <v>234664</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>190983</v>
+        <v>195343</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>127971</v>
+        <v>127867</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>246505</v>
+        <v>249036</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>11458</v>
+        <v>12579</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>15091</v>
+        <v>13751</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>5734</v>
+        <v>5693</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>38985</v>
+        <v>37426</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>282722</v>
+        <v>283816</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>243740</v>
+        <v>240997</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>176425</v>
+        <v>175598</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>279078</v>
+        <v>279252</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>288147</v>
+        <v>291503</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>249209</v>
+        <v>252020</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>178693</v>
+        <v>178694</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>305756</v>
+        <v>304357</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>490506</v>
+        <v>482540</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>277166</v>
+        <v>275373</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>245715</v>
+        <v>246001</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>598520</v>
+        <v>592738</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>606430</v>
+        <v>603983</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>599067</v>
+        <v>599761</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>447117</v>
+        <v>444129</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>1072490</v>
+        <v>1077025</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1118628</v>
+        <v>1122313</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>893039</v>
+        <v>896719</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>715775</v>
+        <v>712385</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1692593</v>
+        <v>1696107</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>572128</v>
+        <v>570986</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>346317</v>
+        <v>347910</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>310096</v>
+        <v>313098</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>695879</v>
+        <v>684275</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>698229</v>
+        <v>694696</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>691914</v>
+        <v>690322</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>533793</v>
+        <v>530297</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>1164486</v>
+        <v>1169774</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1239487</v>
+        <v>1247724</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>1010881</v>
+        <v>1011911</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>828316</v>
+        <v>821653</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>1826529</v>
+        <v>1833786</v>
       </c>
     </row>
     <row r="32">
